--- a/demo/Mouvements.xlsx
+++ b/demo/Mouvements.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ITC\Documents\GitHub\nextron-with-next-ui\demo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8BC0593-ACD2-4383-9BF8-09279C4232C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF7018F1-BB86-4E7C-B935-2F6ACD77D823}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{99D3AE4D-51A0-4B02-8F4C-C3C249C58F10}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="21600" windowHeight="11385" xr2:uid="{99D3AE4D-51A0-4B02-8F4C-C3C249C58F10}"/>
   </bookViews>
   <sheets>
     <sheet name="MOUVEMENT" sheetId="3" r:id="rId1"/>
@@ -30,61 +30,61 @@
     <t>N°</t>
   </si>
   <si>
-    <t>LAISE</t>
-  </si>
-  <si>
-    <t>GRAMMAGE</t>
-  </si>
-  <si>
-    <t>SOCIETE</t>
-  </si>
-  <si>
     <t>SKU</t>
   </si>
   <si>
+    <t>{item.SKU}</t>
+  </si>
+  <si>
+    <t>{item.Article}</t>
+  </si>
+  <si>
+    <t>{item.Type}</t>
+  </si>
+  <si>
+    <t>{item.Laise}</t>
+  </si>
+  <si>
+    <t>{item.Grammage}</t>
+  </si>
+  <si>
+    <t>{item.Quantité}</t>
+  </si>
+  <si>
+    <t>{item.Poid}</t>
+  </si>
+  <si>
+    <t>{item.ID}</t>
+  </si>
+  <si>
+    <t>{item.Date}</t>
+  </si>
+  <si>
+    <t>{item.Notes}</t>
+  </si>
+  <si>
+    <t>Fournisseur</t>
+  </si>
+  <si>
     <t>Type</t>
   </si>
   <si>
-    <t>{item.SKU}</t>
-  </si>
-  <si>
-    <t>{item.Article}</t>
-  </si>
-  <si>
-    <t>{item.Type}</t>
-  </si>
-  <si>
-    <t>{item.Laise}</t>
-  </si>
-  <si>
-    <t>{item.Grammage}</t>
-  </si>
-  <si>
-    <t>{item.Quantité}</t>
-  </si>
-  <si>
-    <t>{item.Poid}</t>
-  </si>
-  <si>
-    <t>{item.ID}</t>
-  </si>
-  <si>
-    <t>DATE</t>
-  </si>
-  <si>
-    <t>{item.Date}</t>
+    <t>Laise</t>
+  </si>
+  <si>
+    <t>Grammage</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>Poid</t>
+  </si>
+  <si>
+    <t>Date</t>
   </si>
   <si>
     <t>Note</t>
-  </si>
-  <si>
-    <t>Poid</t>
-  </si>
-  <si>
-    <t>Quantité</t>
-  </si>
-  <si>
-    <t>{item.Notes}</t>
   </si>
 </sst>
 </file>
@@ -501,13 +501,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -524,6 +517,13 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -568,18 +568,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{2B78A7A1-BF8C-4429-B56D-0B277802652C}" name="Tableau5" displayName="Tableau5" ref="B3:K5" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13" headerRowBorderDxfId="11" tableBorderDxfId="12" totalsRowBorderDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{2B78A7A1-BF8C-4429-B56D-0B277802652C}" name="Tableau5" displayName="Tableau5" ref="B3:K5" totalsRowShown="0" headerRowDxfId="14" dataDxfId="12" headerRowBorderDxfId="13" tableBorderDxfId="11" totalsRowBorderDxfId="10">
   <autoFilter ref="B3:K5" xr:uid="{2B78A7A1-BF8C-4429-B56D-0B277802652C}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{B369684E-635A-4FFB-84F8-E370574E7766}" name="N°" dataDxfId="9"/>
     <tableColumn id="8" xr3:uid="{25748667-C5C9-4B2B-95A8-137A62E77CF9}" name="SKU" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{CFFCE6CD-557D-47D0-B08F-3F9CF2DCB677}" name="SOCIETE" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{CFFCE6CD-557D-47D0-B08F-3F9CF2DCB677}" name="Fournisseur" dataDxfId="7"/>
     <tableColumn id="9" xr3:uid="{680B7BAE-999C-4D01-8754-026881CFEC53}" name="Type" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{34D85E03-EE12-4F84-B21C-5210BE78D6D8}" name="LAISE" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{BE0851B9-EBCD-4AB2-8EEA-E3D7C69D47EE}" name="GRAMMAGE" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{4253B241-1E38-4C17-8322-3004BEFBD326}" name="Quantité" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{34D85E03-EE12-4F84-B21C-5210BE78D6D8}" name="Laise" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{BE0851B9-EBCD-4AB2-8EEA-E3D7C69D47EE}" name="Grammage" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{4253B241-1E38-4C17-8322-3004BEFBD326}" name="Quantity" dataDxfId="3"/>
     <tableColumn id="6" xr3:uid="{C90F59E6-0B79-4DEC-882E-EF51D0B74EA3}" name="Poid" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{DA7BE4BD-A4EC-42A3-BC1F-D5CE773622C9}" name="DATE" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{DA7BE4BD-A4EC-42A3-BC1F-D5CE773622C9}" name="Date" dataDxfId="1"/>
     <tableColumn id="10" xr3:uid="{E2EC8078-4786-45F1-AD8C-38D747D1DCD9}" name="Note" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -885,15 +885,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2501721B-4FD7-43E5-B567-862779CDA0DC}">
   <dimension ref="B3:L75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="10.5703125" customWidth="1"/>
     <col min="3" max="3" width="22.140625" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" customWidth="1"/>
     <col min="5" max="5" width="21" customWidth="1"/>
     <col min="6" max="6" width="18.7109375" customWidth="1"/>
     <col min="7" max="7" width="26.7109375" customWidth="1"/>
@@ -908,63 +908,63 @@
         <v>0</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>17</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="H4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="I4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="7" t="s">
+      <c r="J4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="K4" s="9" t="s">
         <v>11</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="K4" s="9" t="s">
-        <v>19</v>
       </c>
       <c r="L4" s="1"/>
     </row>
